--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1414,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1449,28 +1461,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1507,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1963,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1998,28 +2010,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2056,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2298,10 +2310,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2345,28 +2357,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2391,28 +2403,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2587,10 +2599,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2634,28 +2646,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2680,28 +2692,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2888,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2923,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2981,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3165,10 +3177,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3212,28 +3224,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3258,28 +3270,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3425,10 +3437,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3472,28 +3484,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3518,28 +3530,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3685,10 +3697,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3732,28 +3744,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3778,28 +3790,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3974,10 +3986,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4021,28 +4033,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4067,28 +4079,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4217,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4264,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4310,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4494,10 +4506,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4541,28 +4553,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4587,28 +4599,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4696,10 +4708,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4743,28 +4755,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4789,28 +4801,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4956,10 +4968,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5003,28 +5015,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5049,28 +5061,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5187,10 +5199,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5234,28 +5246,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5280,28 +5292,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5389,10 +5401,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5436,28 +5448,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5482,28 +5494,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5591,10 +5603,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5638,28 +5650,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5684,28 +5696,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5793,10 +5805,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5840,28 +5852,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5886,28 +5898,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6024,10 +6036,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6071,28 +6083,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6117,28 +6129,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6197,10 +6209,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6244,28 +6256,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6290,28 +6302,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6399,10 +6411,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6446,28 +6458,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6492,28 +6504,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6630,10 +6642,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6677,28 +6689,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6723,28 +6735,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6803,10 +6815,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
